--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\PycharmProjects\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5921D6A6-0C05-42B8-9592-264CABC8E084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C842CA5-F378-4C3F-ABF6-A8ED0ECB0BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{CE06A4FA-47F0-4620-AC87-2C908023F92F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE06A4FA-47F0-4620-AC87-2C908023F92F}"/>
   </bookViews>
   <sheets>
     <sheet name="潘立文分析" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"> 治疗周期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,118 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C-18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-15</t>
-  </si>
-  <si>
-    <t>C-14</t>
-  </si>
-  <si>
-    <t>C-13</t>
-  </si>
-  <si>
-    <t>C-12</t>
-  </si>
-  <si>
-    <t>C-11</t>
-  </si>
-  <si>
-    <t>C-10</t>
-  </si>
-  <si>
-    <t>C-9</t>
-  </si>
-  <si>
-    <t>C-8</t>
-  </si>
-  <si>
-    <t>C-7</t>
-  </si>
-  <si>
-    <t>C-6</t>
-  </si>
-  <si>
-    <t>C-5</t>
-  </si>
-  <si>
-    <t>C-4</t>
-  </si>
-  <si>
-    <t>C-3</t>
-  </si>
-  <si>
-    <t>C-2</t>
-  </si>
-  <si>
-    <t>C-1</t>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
     <t>BASO#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,21 +122,9 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -281,18 +157,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -607,26 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67F12BE-8BD0-4BA8-8829-19BF6EA16060}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="12.5" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,27 +530,13 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6"/>
+      <c r="C2" s="4">
         <v>42018</v>
       </c>
       <c r="D2">
@@ -704,18 +560,16 @@
       <c r="J2">
         <v>188</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>42039</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:12">
+      <c r="A3" s="6"/>
+      <c r="C3" s="4">
         <v>42039</v>
       </c>
       <c r="D3">
@@ -739,18 +593,16 @@
       <c r="J3">
         <v>188</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>42081</v>
       </c>
       <c r="L3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:12">
+      <c r="A4" s="6"/>
+      <c r="C4" s="4">
         <v>42046</v>
       </c>
       <c r="D4">
@@ -774,18 +626,16 @@
       <c r="J4">
         <v>213</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>42103</v>
       </c>
       <c r="L4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="C5" s="4">
         <v>42061</v>
       </c>
       <c r="D5">
@@ -809,18 +659,16 @@
       <c r="J5">
         <v>177</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>42527</v>
       </c>
       <c r="L5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7">
+    <row r="6" spans="1:12">
+      <c r="A6" s="6"/>
+      <c r="C6" s="4">
         <v>42069</v>
       </c>
       <c r="D6">
@@ -844,18 +692,16 @@
       <c r="J6">
         <v>169</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <v>42538</v>
       </c>
       <c r="L6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="6"/>
+      <c r="C7" s="4">
         <v>42081</v>
       </c>
       <c r="D7">
@@ -879,18 +725,16 @@
       <c r="J7">
         <v>258</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <v>42564</v>
       </c>
       <c r="L7">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="8" spans="1:12">
+      <c r="A8" s="6"/>
+      <c r="C8" s="4">
         <v>42090</v>
       </c>
       <c r="D8">
@@ -915,11 +759,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7">
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="C9" s="4">
         <v>42093</v>
       </c>
       <c r="D9">
@@ -944,11 +786,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="C10" s="4">
         <v>42103</v>
       </c>
       <c r="D10">
@@ -973,11 +813,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
+    <row r="11" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="C11" s="4">
         <v>42114</v>
       </c>
       <c r="D11">
@@ -1002,11 +840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7">
+    <row r="12" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="C12" s="4">
         <v>42117</v>
       </c>
       <c r="D12">
@@ -1027,16 +863,14 @@
       <c r="I12">
         <v>146</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="5"/>
       <c r="L12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7">
+    <row r="13" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="C13" s="4">
         <v>42131</v>
       </c>
       <c r="D13">
@@ -1057,16 +891,14 @@
       <c r="I13">
         <v>195</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="5"/>
       <c r="L13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="14" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="C14" s="4">
         <v>42135</v>
       </c>
       <c r="D14">
@@ -1091,11 +923,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7">
+    <row r="15" spans="1:12">
+      <c r="A15" s="6"/>
+      <c r="C15" s="4">
         <v>42159</v>
       </c>
       <c r="D15">
@@ -1120,11 +950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7">
+    <row r="16" spans="1:12">
+      <c r="A16" s="6"/>
+      <c r="C16" s="4">
         <v>42527</v>
       </c>
       <c r="D16">
@@ -1149,11 +977,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
+    <row r="17" spans="1:12">
+      <c r="A17" s="6"/>
+      <c r="C17" s="4">
         <v>42538</v>
       </c>
       <c r="D17">
@@ -1178,11 +1004,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7">
+    <row r="18" spans="1:12">
+      <c r="A18" s="6"/>
+      <c r="C18" s="4">
         <v>42564</v>
       </c>
       <c r="D18">
@@ -1207,11 +1031,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="7">
+    <row r="19" spans="1:12">
+      <c r="A19" s="6"/>
+      <c r="C19" s="4">
         <v>42612</v>
       </c>
       <c r="D19">
@@ -1235,58 +1057,50 @@
       <c r="J19">
         <v>290</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <v>42612</v>
       </c>
       <c r="L19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="2" customFormat="1">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="9">
-        <v>42619</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="20" spans="1:12" s="9" customFormat="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
         <v>42618</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <v>6.64</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="9">
         <v>1.04</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
         <v>5.04</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="9">
         <v>0.47</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="9">
         <v>230</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="9">
         <v>276</v>
       </c>
       <c r="K20" s="10">
         <v>42618</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="9">
         <v>0.02</v>
       </c>
-      <c r="T20"/>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7">
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="6"/>
+      <c r="C21" s="4">
         <v>42632</v>
       </c>
       <c r="D21">
@@ -1311,11 +1125,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7">
+    <row r="22" spans="1:12">
+      <c r="A22" s="6"/>
+      <c r="C22" s="4">
         <v>42639</v>
       </c>
       <c r="D22">
@@ -1339,18 +1151,16 @@
       <c r="J22">
         <v>340</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <v>42639</v>
       </c>
       <c r="L22">
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7">
+    <row r="23" spans="1:12">
+      <c r="A23" s="6"/>
+      <c r="C23" s="4">
         <v>42660</v>
       </c>
       <c r="D23">
@@ -1374,18 +1184,16 @@
       <c r="J23">
         <v>235</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <v>42660</v>
       </c>
       <c r="L23">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="7">
+    <row r="24" spans="1:12">
+      <c r="A24" s="6"/>
+      <c r="C24" s="4">
         <v>42682</v>
       </c>
       <c r="D24">
@@ -1409,18 +1217,16 @@
       <c r="J24">
         <v>258</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="5">
         <v>42682</v>
       </c>
       <c r="L24">
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7">
+    <row r="25" spans="1:12">
+      <c r="A25" s="6"/>
+      <c r="C25" s="4">
         <v>42692</v>
       </c>
       <c r="D25">
@@ -1444,18 +1250,16 @@
       <c r="J25">
         <v>224</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="5">
         <v>42692</v>
       </c>
       <c r="L25">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="7">
+    <row r="26" spans="1:12">
+      <c r="A26" s="6"/>
+      <c r="C26" s="4">
         <v>42712</v>
       </c>
       <c r="D26">
@@ -1479,18 +1283,16 @@
       <c r="J26">
         <v>260</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="5">
         <v>42712</v>
       </c>
       <c r="L26">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="7">
+    <row r="27" spans="1:12">
+      <c r="A27" s="6"/>
+      <c r="C27" s="4">
         <v>42741</v>
       </c>
       <c r="D27">
@@ -1514,18 +1316,16 @@
       <c r="J27">
         <v>186</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="5">
         <v>42741</v>
       </c>
       <c r="L27">
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="7">
+    <row r="28" spans="1:12">
+      <c r="A28" s="6"/>
+      <c r="C28" s="4">
         <v>42835</v>
       </c>
       <c r="D28">
@@ -1550,11 +1350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="7">
+    <row r="29" spans="1:12">
+      <c r="A29" s="6"/>
+      <c r="C29" s="4">
         <v>42874</v>
       </c>
       <c r="D29">
@@ -1579,11 +1377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="7">
+    <row r="30" spans="1:12">
+      <c r="A30" s="6"/>
+      <c r="C30" s="4">
         <v>42920</v>
       </c>
       <c r="D30">
@@ -1608,11 +1404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="7">
+    <row r="31" spans="1:12">
+      <c r="A31" s="6"/>
+      <c r="C31" s="4">
         <v>42963</v>
       </c>
       <c r="D31">
@@ -1637,11 +1431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7">
+    <row r="32" spans="1:12">
+      <c r="A32" s="6"/>
+      <c r="C32" s="4">
         <v>43003</v>
       </c>
       <c r="D32">
@@ -1667,10 +1459,8 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="A33" s="6"/>
+      <c r="C33" s="4">
         <v>43041</v>
       </c>
       <c r="D33">
@@ -1694,7 +1484,7 @@
       <c r="J33">
         <v>191</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="5">
         <v>43041</v>
       </c>
       <c r="L33">
@@ -1702,10 +1492,8 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="A34" s="6"/>
+      <c r="C34" s="4">
         <v>43087</v>
       </c>
       <c r="D34">
@@ -1729,7 +1517,7 @@
       <c r="J34">
         <v>198</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="5">
         <v>43087</v>
       </c>
       <c r="L34">
@@ -1737,10 +1525,8 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="A35" s="6"/>
+      <c r="C35" s="4">
         <v>43133</v>
       </c>
       <c r="D35">
@@ -1764,7 +1550,7 @@
       <c r="J35">
         <v>243</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="5">
         <v>43133</v>
       </c>
       <c r="L35">
@@ -1772,10 +1558,8 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7">
+      <c r="A36" s="6"/>
+      <c r="C36" s="4">
         <v>43173</v>
       </c>
       <c r="D36">
@@ -1801,10 +1585,8 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="A37" s="6"/>
+      <c r="C37" s="4">
         <v>43215</v>
       </c>
       <c r="D37">
